--- a/ProjetHTMLei5/public/uploads/patients.xlsx
+++ b/ProjetHTMLei5/public/uploads/patients.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27729"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="33140" yWindow="4060" windowWidth="14800" windowHeight="8020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="0123456" sheetId="1" r:id="rId1"/>
-    <sheet name="7890123" sheetId="3" r:id="rId2"/>
+    <sheet name="0123490" sheetId="1" r:id="rId1"/>
+    <sheet name="1829301" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,10 +38,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,14 +80,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -153,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,7 +217,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,18 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,152 +451,241 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>42736.416666666664</v>
+        <v>41682.708333333336</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>42737.416666608799</v>
+        <v>41683.708333333336</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>42738.416666608799</v>
+        <v>41684.708333333336</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>42739.416666608799</v>
+        <v>41685.708333333336</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="D5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>42740.416666608799</v>
+        <v>41686.708333333336</v>
       </c>
       <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>128</v>
+      </c>
+      <c r="D6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>41687.708333333336</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>134</v>
+      </c>
+      <c r="D7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>41688.708333333336</v>
+      </c>
+      <c r="B8">
         <v>50</v>
-      </c>
-      <c r="C6">
-        <v>110</v>
-      </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42741.416666608799</v>
-      </c>
-      <c r="B7">
-        <v>36</v>
-      </c>
-      <c r="C7">
-        <v>113</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42742.416666608799</v>
-      </c>
-      <c r="B8">
-        <v>24</v>
       </c>
       <c r="C8">
         <v>117</v>
       </c>
       <c r="D8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>42743.416666608799</v>
+        <v>41689.708333333336</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D9">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>42744.416666608799</v>
+        <v>41690.708333333336</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D10">
-        <v>86</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>41691.708333333336</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>126</v>
+      </c>
+      <c r="D11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>41692.708333333336</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>124</v>
+      </c>
+      <c r="D12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>41693.708333333336</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>41694.708333333336</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>108</v>
+      </c>
+      <c r="D14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>41695.708333333336</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+      <c r="D15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>41696.708333333336</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>151</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,78 +699,261 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>42736.416666666664</v>
+        <v>40932.791666666664</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C2">
+        <v>122</v>
+      </c>
+      <c r="D2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>40933.791666608799</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
         <v>118</v>
       </c>
-      <c r="D2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42737.416666608799</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>121</v>
-      </c>
       <c r="D3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>42738.416666608799</v>
+        <v>40934.791666608799</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>42739.416666608799</v>
+        <v>40935.791666608799</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>42740.416666608799</v>
+        <v>40936.791666608799</v>
       </c>
       <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>40937.791666608799</v>
+      </c>
+      <c r="B7">
         <v>50</v>
       </c>
-      <c r="C6">
-        <v>110</v>
-      </c>
-      <c r="D6">
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>40938.791666608799</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>113</v>
+      </c>
+      <c r="D8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>40939.791666608799</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>109</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>40940.791666608799</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>127</v>
+      </c>
+      <c r="D10">
         <v>80</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>40941.791666608799</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>130</v>
+      </c>
+      <c r="D11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>40942.791666608799</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>141</v>
+      </c>
+      <c r="D12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>40943.791666608799</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>140</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>40944.791666608799</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>133</v>
+      </c>
+      <c r="D14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>40945.791666608799</v>
+      </c>
+      <c r="B15">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>129</v>
+      </c>
+      <c r="D15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>40946.791666608799</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>140</v>
+      </c>
+      <c r="D16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>40947.791666608799</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>131</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>40948.791666608799</v>
+      </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>130</v>
+      </c>
+      <c r="D18">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="diastole" prompt="Valeur entre 30 et 110" sqref="D2:D3 D8:D9 D14:D18">
+      <formula1>30</formula1>
+      <formula2>110</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="systole" prompt="Valeur entre 60 et 200" sqref="C2:C3 C8:C9 C14:C18">
+      <formula1>60</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ProjetHTMLei5/public/uploads/patients.xlsx
+++ b/ProjetHTMLei5/public/uploads/patients.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27729"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33140" yWindow="4060" windowWidth="14800" windowHeight="8020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15040"/>
   </bookViews>
   <sheets>
     <sheet name="0123490" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +62,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,23 +84,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -428,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -438,226 +464,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>41682.708333333336</v>
       </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="3">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1">
         <v>138</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>41683.708333333336</v>
       </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="3">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1">
         <v>129</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>41684.708333333336</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1">
+        <v>137</v>
+      </c>
+      <c r="D4" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>41685.708333333336</v>
+      </c>
+      <c r="B5" s="3">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1">
+        <v>133</v>
+      </c>
+      <c r="D5" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>41686.708333333336</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>128</v>
+      </c>
+      <c r="D6" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>41687.708333333336</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>41688.708333333336</v>
+      </c>
+      <c r="B8" s="3">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>117</v>
+      </c>
+      <c r="D8" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>41689.708333333336</v>
+      </c>
+      <c r="B9" s="3">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1">
+        <v>117</v>
+      </c>
+      <c r="D9" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>41690.708333333336</v>
+      </c>
+      <c r="B10" s="3">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1">
+        <v>128</v>
+      </c>
+      <c r="D10" s="1">
         <v>90</v>
       </c>
-      <c r="C4">
-        <v>137</v>
-      </c>
-      <c r="D4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>41685.708333333336</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>133</v>
-      </c>
-      <c r="D5">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>41686.708333333336</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>128</v>
-      </c>
-      <c r="D6">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>41687.708333333336</v>
-      </c>
-      <c r="B7">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>41691.708333333336</v>
+      </c>
+      <c r="B11" s="3">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1">
+        <v>126</v>
+      </c>
+      <c r="D11" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>41692.708333333336</v>
+      </c>
+      <c r="B12" s="3">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1">
+        <v>124</v>
+      </c>
+      <c r="D12" s="1">
         <v>90</v>
       </c>
-      <c r="C7">
-        <v>134</v>
-      </c>
-      <c r="D7">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>41688.708333333336</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>117</v>
-      </c>
-      <c r="D8">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>41693.708333333336</v>
+      </c>
+      <c r="B13" s="3">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1">
+        <v>116</v>
+      </c>
+      <c r="D13" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>41689.708333333336</v>
-      </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-      <c r="C9">
-        <v>117</v>
-      </c>
-      <c r="D9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>41690.708333333336</v>
-      </c>
-      <c r="B10">
-        <v>90</v>
-      </c>
-      <c r="C10">
-        <v>128</v>
-      </c>
-      <c r="D10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>41691.708333333336</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>126</v>
-      </c>
-      <c r="D11">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>41692.708333333336</v>
-      </c>
-      <c r="B12">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>124</v>
-      </c>
-      <c r="D12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>41693.708333333336</v>
-      </c>
-      <c r="B13">
-        <v>90</v>
-      </c>
-      <c r="C13">
-        <v>116</v>
-      </c>
-      <c r="D13">
-        <v>82</v>
-      </c>
-    </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>41694.708333333336</v>
       </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1">
         <v>108</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>41695.708333333336</v>
       </c>
-      <c r="B15">
-        <v>60</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1">
         <v>105</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>41696.708333333336</v>
       </c>
-      <c r="B16">
-        <v>90</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="3">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1">
         <v>151</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>91</v>
       </c>
     </row>
@@ -676,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -686,254 +712,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>40932.791666666664</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1">
+        <v>122</v>
+      </c>
+      <c r="D2" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>40933.791666608799</v>
+      </c>
+      <c r="B3" s="3">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>40934.791666608799</v>
+      </c>
+      <c r="B4" s="3">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1">
+        <v>128</v>
+      </c>
+      <c r="D4" s="1">
         <v>90</v>
       </c>
-      <c r="C2">
-        <v>122</v>
-      </c>
-      <c r="D2">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>40935.791666608799</v>
+      </c>
+      <c r="B5" s="3">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>40936.791666608799</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>40937.791666608799</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>120</v>
+      </c>
+      <c r="D7" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>40938.791666608799</v>
+      </c>
+      <c r="B8" s="3">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>113</v>
+      </c>
+      <c r="D8" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>40939.791666608799</v>
+      </c>
+      <c r="B9" s="3">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1">
+        <v>109</v>
+      </c>
+      <c r="D9" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>40940.791666608799</v>
+      </c>
+      <c r="B10" s="3">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>40941.791666608799</v>
+      </c>
+      <c r="B11" s="3">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1">
+        <v>130</v>
+      </c>
+      <c r="D11" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>40942.791666608799</v>
+      </c>
+      <c r="B12" s="3">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1">
+        <v>141</v>
+      </c>
+      <c r="D12" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>40943.791666608799</v>
+      </c>
+      <c r="B13" s="3">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1">
+        <v>140</v>
+      </c>
+      <c r="D13" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>40944.791666608799</v>
+      </c>
+      <c r="B14" s="3">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1">
+        <v>133</v>
+      </c>
+      <c r="D14" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>40945.791666608799</v>
+      </c>
+      <c r="B15" s="3">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1">
+        <v>129</v>
+      </c>
+      <c r="D15" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>40946.791666608799</v>
+      </c>
+      <c r="B16" s="3">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1">
+        <v>140</v>
+      </c>
+      <c r="D16" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>40933.791666608799</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>118</v>
-      </c>
-      <c r="D3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>40934.791666608799</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>128</v>
-      </c>
-      <c r="D4">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>40947.791666608799</v>
+      </c>
+      <c r="B17" s="3">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1">
+        <v>131</v>
+      </c>
+      <c r="D17" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>40935.791666608799</v>
-      </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>93</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>40936.791666608799</v>
-      </c>
-      <c r="B6">
-        <v>90</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>40937.791666608799</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>120</v>
-      </c>
-      <c r="D7">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>40938.791666608799</v>
-      </c>
-      <c r="B8">
-        <v>60</v>
-      </c>
-      <c r="C8">
-        <v>113</v>
-      </c>
-      <c r="D8">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>40939.791666608799</v>
-      </c>
-      <c r="B9">
-        <v>90</v>
-      </c>
-      <c r="C9">
-        <v>109</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>40940.791666608799</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>127</v>
-      </c>
-      <c r="D10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>40941.791666608799</v>
-      </c>
-      <c r="B11">
-        <v>60</v>
-      </c>
-      <c r="C11">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>40948.791666608799</v>
+      </c>
+      <c r="B18" s="3">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1">
         <v>130</v>
       </c>
-      <c r="D11">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>40942.791666608799</v>
-      </c>
-      <c r="B12">
-        <v>90</v>
-      </c>
-      <c r="C12">
-        <v>141</v>
-      </c>
-      <c r="D12">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>40943.791666608799</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>140</v>
-      </c>
-      <c r="D13">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>40944.791666608799</v>
-      </c>
-      <c r="B14">
-        <v>60</v>
-      </c>
-      <c r="C14">
-        <v>133</v>
-      </c>
-      <c r="D14">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>40945.791666608799</v>
-      </c>
-      <c r="B15">
-        <v>90</v>
-      </c>
-      <c r="C15">
-        <v>129</v>
-      </c>
-      <c r="D15">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>40946.791666608799</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>140</v>
-      </c>
-      <c r="D16">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>40947.791666608799</v>
-      </c>
-      <c r="B17">
-        <v>60</v>
-      </c>
-      <c r="C17">
-        <v>131</v>
-      </c>
-      <c r="D17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>40948.791666608799</v>
-      </c>
-      <c r="B18">
-        <v>90</v>
-      </c>
-      <c r="C18">
-        <v>130</v>
-      </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>88</v>
       </c>
     </row>
